--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl5-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl5-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Cxcl5</t>
+  </si>
+  <si>
+    <t>Cxcr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Cxcl5</t>
-  </si>
-  <si>
-    <t>Cxcr2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,46 +531,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.783579666666667</v>
+        <v>0.05862133333333333</v>
       </c>
       <c r="H2">
-        <v>5.350739</v>
+        <v>0.175864</v>
       </c>
       <c r="I2">
-        <v>0.9681786442775064</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9681786442775064</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N2">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q2">
-        <v>280.4994541076366</v>
+        <v>0.0009676428088888888</v>
       </c>
       <c r="R2">
-        <v>2524.49508696873</v>
+        <v>0.008708785280000001</v>
       </c>
       <c r="S2">
-        <v>0.9681525794321378</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="T2">
-        <v>0.9681525794321378</v>
+        <v>0.795859985214233</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.783579666666667</v>
+        <v>0.05862133333333333</v>
       </c>
       <c r="H3">
-        <v>5.350739</v>
+        <v>0.175864</v>
       </c>
       <c r="I3">
-        <v>0.9681786442775064</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9681786442775064</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,146 +617,22 @@
         <v>0.012702</v>
       </c>
       <c r="O3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q3">
-        <v>0.007551676308666666</v>
+        <v>0.0002482027253333333</v>
       </c>
       <c r="R3">
-        <v>0.06796508677799999</v>
+        <v>0.002233824528</v>
       </c>
       <c r="S3">
-        <v>2.606484536852847E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="T3">
-        <v>2.606484536852847E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.05862133333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.175864</v>
-      </c>
-      <c r="I4">
-        <v>0.03182135572249355</v>
-      </c>
-      <c r="J4">
-        <v>0.03182135572249355</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>157.26769</v>
-      </c>
-      <c r="N4">
-        <v>471.80307</v>
-      </c>
-      <c r="O4">
-        <v>0.9999730784752147</v>
-      </c>
-      <c r="P4">
-        <v>0.9999730784752147</v>
-      </c>
-      <c r="Q4">
-        <v>9.219241678053333</v>
-      </c>
-      <c r="R4">
-        <v>82.97317510248001</v>
-      </c>
-      <c r="S4">
-        <v>0.03182049904307676</v>
-      </c>
-      <c r="T4">
-        <v>0.03182049904307677</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.05862133333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.175864</v>
-      </c>
-      <c r="I5">
-        <v>0.03182135572249355</v>
-      </c>
-      <c r="J5">
-        <v>0.03182135572249355</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.004234</v>
-      </c>
-      <c r="N5">
-        <v>0.012702</v>
-      </c>
-      <c r="O5">
-        <v>2.692152478531388E-05</v>
-      </c>
-      <c r="P5">
-        <v>2.692152478531388E-05</v>
-      </c>
-      <c r="Q5">
-        <v>0.0002482027253333334</v>
-      </c>
-      <c r="R5">
-        <v>0.002233824528</v>
-      </c>
-      <c r="S5">
-        <v>8.566794167853996E-07</v>
-      </c>
-      <c r="T5">
-        <v>8.566794167853997E-07</v>
+        <v>0.2041400147857671</v>
       </c>
     </row>
   </sheetData>
